--- a/doc/alice/20180423课程创建到结算流程.xlsx
+++ b/doc/alice/20180423课程创建到结算流程.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Hot-Tech\git.hot-basketball.com\doc\alice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{114DAFF8-34CA-4B18-8A5D-B33CC40C9DF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BC592215-62D9-4E5C-860D-AED161EF4228}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -936,6 +936,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -988,9 +991,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2843,13 +2843,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2864,8 +2864,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2981325" y="5762625"/>
-          <a:ext cx="1552575" cy="1000126"/>
+          <a:off x="2981325" y="5762624"/>
+          <a:ext cx="1552575" cy="1285875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2928,6 +2928,26 @@
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>创建对应班级</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>（可不录学生）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3103,8 +3123,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3120,7 +3140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5276851" y="5753099"/>
-          <a:ext cx="1562100" cy="1590676"/>
+          <a:ext cx="1562100" cy="1895476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3223,9 +3243,9 @@
             </a:rPr>
             <a:t>所有成员</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
             <a:solidFill>
-              <a:srgbClr val="00B050"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
@@ -3538,6 +3558,543 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矩形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DC3CE8-14AE-4A45-9298-2CD3E1363E7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="8648700"/>
+          <a:ext cx="1562099" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>分享校园课程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="矩形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161DA40A-9201-4138-B5E9-E850C0B05F08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2976563" y="8648700"/>
+          <a:ext cx="1562099" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>会员报名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860416D9-8E24-49C6-8E87-4339D7CC5B3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="9353550"/>
+          <a:ext cx="1552575" cy="1000126"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>报名不设权限</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>任何人都可以报名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>242888</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接箭头连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D60E53-AD73-4104-9717-5B072A178780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247899" y="8972550"/>
+          <a:ext cx="738189" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F3D211-7744-422D-B37D-9958AD8B0F63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="9344024"/>
+          <a:ext cx="1562100" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>不在公开列表展示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>从课程管理进入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>详情页进行分享</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8277A00E-56CB-46DE-A40E-881CEDE4F805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="0"/>
+          <a:endCxn id="27" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3757613" y="7048499"/>
+          <a:ext cx="0" cy="1600201"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接箭头连接符 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1A32E1-C180-4123-A5CC-CFE4FBF0C2CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="2"/>
+          <a:endCxn id="31" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="6315076"/>
+          <a:ext cx="0" cy="2333624"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3900,41 +4457,41 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="49" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="49" t="s">
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="50"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="50" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="47" t="s">
+      <c r="M10" s="51"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
@@ -3982,7 +4539,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3">
@@ -4032,7 +4589,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="3">
         <v>88</v>
       </c>
@@ -4080,7 +4637,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="3">
         <v>100</v>
       </c>
@@ -4128,7 +4685,7 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="47"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
@@ -4185,7 +4742,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="3">
@@ -4232,7 +4789,7 @@
       <c r="Q16" s="37"/>
     </row>
     <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="46"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -4286,7 +4843,7 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3">
@@ -4339,7 +4896,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="47"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="3">
         <v>180</v>
       </c>
@@ -4390,7 +4947,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="47"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="3">
         <v>240</v>
       </c>
@@ -4441,7 +4998,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="47"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
@@ -4590,16 +5147,16 @@
       <c r="C46" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
@@ -4615,16 +5172,16 @@
       <c r="C47" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="45"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -4640,16 +5197,16 @@
       <c r="C48" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="45"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -4685,16 +5242,16 @@
       <c r="C51" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="48" t="s">
+      <c r="D51" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
@@ -4709,16 +5266,16 @@
       <c r="C52" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="42" t="s">
+      <c r="D52" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="45"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -4733,16 +5290,16 @@
       <c r="C53" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="45"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -4787,16 +5344,16 @@
       <c r="C56" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="48" t="s">
+      <c r="D56" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
@@ -4811,16 +5368,16 @@
       <c r="C57" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="45"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -4835,16 +5392,16 @@
       <c r="C58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="42" t="s">
+      <c r="D58" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="45"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -4953,16 +5510,16 @@
       <c r="C20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
       <c r="T20" s="11"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.15">
@@ -4975,16 +5532,16 @@
       <c r="C21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.15">
@@ -4997,16 +5554,16 @@
       <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
       <c r="T22" s="11"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.15">
@@ -5039,16 +5596,16 @@
       <c r="C25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
@@ -5060,16 +5617,16 @@
       <c r="C26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
@@ -5081,16 +5638,16 @@
       <c r="C27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C28" s="7"/>
@@ -5132,16 +5689,16 @@
       <c r="C30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
@@ -5153,16 +5710,16 @@
       <c r="C31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="45"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
@@ -5174,16 +5731,16 @@
       <c r="C32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="45"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
@@ -5293,30 +5850,30 @@
       <c r="C49" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="48" t="s">
+      <c r="D49" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="58"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="59"/>
       <c r="T49" s="11"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="24"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="57"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="58"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -5326,14 +5883,14 @@
       <c r="A51" s="24"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="57"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="58"/>
       <c r="T51" s="11"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.15">
@@ -5378,31 +5935,31 @@
       <c r="B54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="54" t="s">
+      <c r="C54" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="55"/>
-      <c r="K54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="56"/>
+      <c r="K54" s="57"/>
       <c r="T54" s="34"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" s="24"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="56"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="57"/>
       <c r="L55" t="s">
         <v>83</v>
       </c>
@@ -5411,15 +5968,15 @@
     <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" s="24"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="56"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="56"/>
+      <c r="K56" s="57"/>
       <c r="T56" s="34"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.15">
@@ -5439,45 +5996,45 @@
       <c r="B59" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="54" t="s">
+      <c r="C59" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
+      <c r="J59" s="56"/>
+      <c r="K59" s="57"/>
       <c r="T59" s="11"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" s="24"/>
       <c r="B60" s="2"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="56"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="56"/>
+      <c r="J60" s="56"/>
+      <c r="K60" s="57"/>
       <c r="T60" s="11"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="24"/>
       <c r="B61" s="2"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="56"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="57"/>
       <c r="T61" s="11"/>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.15">
@@ -5497,49 +6054,49 @@
       <c r="B64" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47" t="s">
+      <c r="D64" s="48"/>
+      <c r="E64" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="47"/>
-      <c r="G64" s="52" t="s">
+      <c r="F64" s="48"/>
+      <c r="G64" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="51"/>
-      <c r="I64" s="52" t="s">
+      <c r="H64" s="52"/>
+      <c r="I64" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="50"/>
-      <c r="K64" s="53"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="54"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="24"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="53"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="54"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="24"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="53"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="54"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="20"/>
@@ -5621,41 +6178,41 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="49" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="49" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="50" t="s">
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="47" t="s">
+      <c r="M3" s="51"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
@@ -5703,7 +6260,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="3">
@@ -5753,7 +6310,7 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="3">
         <v>88</v>
       </c>
@@ -5801,7 +6358,7 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="3">
         <v>100</v>
       </c>
@@ -5849,7 +6406,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
@@ -5906,7 +6463,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="3">
@@ -5953,7 +6510,7 @@
       <c r="Q9" s="37"/>
     </row>
     <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
@@ -6007,7 +6564,7 @@
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3">
@@ -6060,7 +6617,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="3">
         <v>180</v>
       </c>
@@ -6111,7 +6668,7 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="3">
         <v>240</v>
       </c>
@@ -6162,7 +6719,7 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
@@ -6267,7 +6824,7 @@
       <c r="L20" s="36"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="3">
@@ -6298,7 +6855,7 @@
       <c r="L21" s="31"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="3">
         <v>88</v>
       </c>
@@ -6327,7 +6884,7 @@
       <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="47"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="3">
         <v>100</v>
       </c>
@@ -6356,7 +6913,7 @@
       <c r="L23" s="31"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="47"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="3" t="s">
         <v>19</v>
       </c>
@@ -6578,29 +7135,29 @@
         <v>123</v>
       </c>
       <c r="O15" s="7"/>
-      <c r="P15" s="47" t="s">
+      <c r="P15" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="47" t="s">
+      <c r="Q15" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="47" t="s">
+      <c r="R15" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="47"/>
-      <c r="T15" s="47" t="s">
+      <c r="S15" s="48"/>
+      <c r="T15" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="47"/>
-      <c r="V15" s="47"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>126</v>
       </c>
       <c r="O16" s="7"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
       <c r="R16" s="3" t="s">
         <v>113</v>
       </c>
@@ -6711,17 +7268,17 @@
       <c r="Q21" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="47">
+      <c r="R21" s="48">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="47"/>
-      <c r="T21" s="52">
+      <c r="S21" s="48"/>
+      <c r="T21" s="53">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="50"/>
-      <c r="V21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="52"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
@@ -6988,37 +7545,54 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813BE4F3-5893-41A5-B37D-0498138DE3EE}">
-  <dimension ref="A27:A49"/>
+  <dimension ref="A27:A66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="V54" sqref="V54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="V41" sqref="V41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="27" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="49" s="60" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="62" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="63" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="64" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="42" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
